--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891903.488950331</v>
+        <v>1891191.187127286</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.7199159991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9957844.41464784</v>
+        <v>9957844.414647838</v>
       </c>
     </row>
     <row r="11">
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,52 +1233,52 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>166.0289796675929</v>
+        <v>101.0923656620089</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538036</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36988737129812</v>
+        <v>117.4609513133136</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693651</v>
+        <v>13.44252716693649</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242248</v>
+        <v>36.82265945242245</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382078</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233444</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W12" t="n">
-        <v>181.8534874392393</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X12" t="n">
-        <v>188.4979333192472</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095782</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256632</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517473</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.13905845068119</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240823</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929902</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>49.36873040538036</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675144</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0.04777353771588544</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>134.146726603625</v>
       </c>
       <c r="C15" t="n">
         <v>9.369887371298091</v>
       </c>
       <c r="D15" t="n">
-        <v>142.6888371528369</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693648</v>
+        <v>13.44252716693649</v>
       </c>
       <c r="T15" t="n">
         <v>36.82265945242245</v>
@@ -1746,13 +1746,13 @@
         <v>62.50065676233442</v>
       </c>
       <c r="W15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X15" t="n">
         <v>39.16465028640278</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095779</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="16">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256629</v>
+        <v>25.2816970025663</v>
       </c>
       <c r="S16" t="n">
         <v>57.28978021311273</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.6395694508488</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419429</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524275</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465162</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.7515787130289</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156603</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216749</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878236</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.3350433677216</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>71.0625077231356</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="U18" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>43.05661780009651</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084891</v>
+        <v>76.6395694508488</v>
       </c>
       <c r="C20" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419429</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524275</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465162</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130291</v>
+        <v>105.7515787130289</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156606</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216749</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878236</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772171</v>
+        <v>62.3350433677216</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146536</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>41.27323687670005</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>24.43972300435404</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C23" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>81.02656572132076</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>159.1595237934317</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845495</v>
+        <v>133.5366480845497</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147514</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444726</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818252</v>
+        <v>8.981130875818325</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="27">
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4.860938559340904</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489263</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V27" t="n">
-        <v>147.8683116763987</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301057</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469588</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.8995356100246</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.95329384217964</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H29" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147507</v>
+        <v>27.52501869147514</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.0322440344472</v>
+        <v>14.03224403444726</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818266</v>
+        <v>8.981130875818325</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864882</v>
       </c>
       <c r="V29" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4117133017659</v>
+        <v>124.411713301766</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.8008168944489</v>
+        <v>168.800816894449</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>41.59519468567618</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>44.49774663357821</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288768</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140131</v>
       </c>
       <c r="W30" t="n">
-        <v>53.2198330530106</v>
+        <v>53.21983305301066</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469673</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>9.899535610024685</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217958</v>
+        <v>21.95329384217964</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632208</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.17180644456468</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044897</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533439</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241597</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167487</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.774779986968</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8930369903136</v>
+        <v>135.8930369903135</v>
       </c>
       <c r="D32" t="n">
-        <v>123.4596992513621</v>
+        <v>123.459699251362</v>
       </c>
       <c r="E32" t="n">
         <v>157.1664516707709</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8867892491483</v>
+        <v>188.8867892491482</v>
       </c>
       <c r="G32" t="n">
-        <v>204.5257125717833</v>
+        <v>204.5257125717832</v>
       </c>
       <c r="H32" t="n">
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461084</v>
+        <v>26.69730882461079</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758298</v>
+        <v>13.20453416758292</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954041</v>
+        <v>8.153421008953984</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178447</v>
       </c>
       <c r="V32" t="n">
-        <v>106.5673232182868</v>
+        <v>106.5673232182867</v>
       </c>
       <c r="W32" t="n">
-        <v>123.5840034349017</v>
+        <v>123.5840034349016</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.4702539038408</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.9731070275847</v>
+        <v>167.9731070275846</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>48.11817335900989</v>
+        <v>0.6584632146249956</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>22.91560910602333</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>3.00045404860532</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>208.8343950899629</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531534</v>
+        <v>21.12558397531528</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.449098059457725</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770033</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358462</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847004</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377244</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303134</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215647</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14632912491004</v>
+        <v>78.14632912491015</v>
       </c>
       <c r="D35" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595862</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536749</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7790047063798</v>
+        <v>146.7790047063799</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228189</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288335</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949822</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843746</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>175.3152348561356</v>
+        <v>69.82966699126729</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229694</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25153883306655</v>
+        <v>18.25153883306666</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0280721215645</v>
+        <v>102.0280721215646</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14632912491004</v>
+        <v>78.1463291249101</v>
       </c>
       <c r="D38" t="n">
-        <v>65.7129913859585</v>
+        <v>65.71299138595856</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41974380536737</v>
+        <v>99.41974380536743</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1400813837447</v>
+        <v>131.1400813837448</v>
       </c>
       <c r="G38" t="n">
         <v>146.7790047063798</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96223035228178</v>
+        <v>74.96223035228184</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82061535288324</v>
+        <v>48.82061535288329</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83729556949811</v>
+        <v>65.83729556949817</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72354603843735</v>
+        <v>87.72354603843741</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.2263991621811</v>
+        <v>110.2263991621812</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>5.671308552376727</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>260.4608093700285</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>122.1844654650993</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59738871229683</v>
+        <v>16.59738871229688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25153883306655</v>
+        <v>18.2515388330666</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.2365738542121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>227.1801317302395</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>135.7224465799879</v>
       </c>
       <c r="C45" t="n">
-        <v>147.3653370746096</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4098,13 +4098,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161062</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4808,46 +4808,46 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42319711481442</v>
+        <v>3.551813413473549</v>
       </c>
       <c r="N8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="O8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="P8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="R8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="S8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="V8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="W8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="X8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
     </row>
     <row r="9">
@@ -4860,58 +4860,58 @@
         <v>6.333867974168094</v>
       </c>
       <c r="C9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="D9" t="n">
-        <v>6.333867974168094</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
-        <v>6.333867974168094</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="S9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="T9" t="n">
-        <v>9.565433267111001</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="U9" t="n">
         <v>9.565433267111001</v>
@@ -4920,10 +4920,10 @@
         <v>9.565433267111001</v>
       </c>
       <c r="W9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y9" t="n">
         <v>6.333867974168094</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.1878275815399</v>
+        <v>117.1933353342356</v>
       </c>
       <c r="C11" t="n">
-        <v>373.1878275815399</v>
+        <v>117.1933353342356</v>
       </c>
       <c r="D11" t="n">
-        <v>373.1878275815399</v>
+        <v>117.1933353342356</v>
       </c>
       <c r="E11" t="n">
-        <v>373.1878275815399</v>
+        <v>117.1933353342356</v>
       </c>
       <c r="F11" t="n">
-        <v>373.1878275815399</v>
+        <v>117.1933353342356</v>
       </c>
       <c r="G11" t="n">
-        <v>182.7858747338155</v>
+        <v>117.1933353342356</v>
       </c>
       <c r="H11" t="n">
         <v>15.07983466553977</v>
@@ -5039,52 +5039,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
-        <v>95.97643023856529</v>
+        <v>50.84645740300283</v>
       </c>
       <c r="K11" t="n">
-        <v>265.6832915252644</v>
+        <v>50.84645740300283</v>
       </c>
       <c r="L11" t="n">
-        <v>452.2962455113191</v>
+        <v>97.56729988376287</v>
       </c>
       <c r="M11" t="n">
-        <v>533.1581445982663</v>
+        <v>284.1802538698175</v>
       </c>
       <c r="N11" t="n">
-        <v>719.771098584321</v>
+        <v>470.7932078558721</v>
       </c>
       <c r="O11" t="n">
-        <v>753.9917332769886</v>
+        <v>505.0138425485397</v>
       </c>
       <c r="P11" t="n">
-        <v>753.9917332769886</v>
+        <v>666.439571432499</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S11" t="n">
-        <v>753.9917332769886</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="T11" t="n">
-        <v>753.9917332769886</v>
+        <v>659.3590588808954</v>
       </c>
       <c r="U11" t="n">
-        <v>753.9917332769886</v>
+        <v>659.3590588808954</v>
       </c>
       <c r="V11" t="n">
-        <v>753.9917332769886</v>
+        <v>659.3590588808954</v>
       </c>
       <c r="W11" t="n">
-        <v>753.9917332769886</v>
+        <v>497.9972410296842</v>
       </c>
       <c r="X11" t="n">
-        <v>753.9917332769886</v>
+        <v>497.9972410296842</v>
       </c>
       <c r="Y11" t="n">
-        <v>563.5897804292642</v>
+        <v>307.5952881819599</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.5443673638207</v>
+        <v>133.7272602345435</v>
       </c>
       <c r="C12" t="n">
         <v>15.07983466553977</v>
@@ -5121,49 +5121,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R12" t="n">
-        <v>617.9111264193344</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S12" t="n">
-        <v>604.3328161497016</v>
+        <v>740.4134230073555</v>
       </c>
       <c r="T12" t="n">
-        <v>567.1382106422041</v>
+        <v>703.2188174998581</v>
       </c>
       <c r="U12" t="n">
-        <v>507.4616395878396</v>
+        <v>643.5422464454937</v>
       </c>
       <c r="V12" t="n">
-        <v>444.3296630602291</v>
+        <v>453.1402935977694</v>
       </c>
       <c r="W12" t="n">
-        <v>260.6392717074621</v>
+        <v>363.689465896816</v>
       </c>
       <c r="X12" t="n">
-        <v>70.23731885973768</v>
+        <v>324.1292130822678</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.5443673638207</v>
+        <v>133.7272602345435</v>
       </c>
     </row>
     <row r="13">
@@ -5188,58 +5188,58 @@
         <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553977</v>
+        <v>24.43284899919597</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553977</v>
+        <v>24.43284899919597</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553977</v>
+        <v>24.43284899919597</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553977</v>
+        <v>64.76626723424681</v>
       </c>
       <c r="K13" t="n">
-        <v>125.0869358392788</v>
+        <v>64.76626723424681</v>
       </c>
       <c r="L13" t="n">
-        <v>125.0869358392788</v>
+        <v>209.3027506600868</v>
       </c>
       <c r="M13" t="n">
-        <v>262.9810061886393</v>
+        <v>360.7048354267195</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9810061886393</v>
+        <v>520.716661142668</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423774</v>
+        <v>520.716661142668</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142668</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426682</v>
+        <v>520.716661142668</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015782</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T13" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117137</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099494</v>
+        <v>54.4667121009949</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>249.1552281179549</v>
+        <v>379.2769725921641</v>
       </c>
       <c r="C14" t="n">
-        <v>249.1552281179549</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="D14" t="n">
-        <v>249.1552281179549</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="E14" t="n">
-        <v>249.1552281179549</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1552281179549</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1552281179549</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554809</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021288</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4328134021288</v>
+        <v>184.7866959522389</v>
       </c>
       <c r="L14" t="n">
-        <v>162.1536558828889</v>
+        <v>371.3996499382935</v>
       </c>
       <c r="M14" t="n">
-        <v>348.7666098689435</v>
+        <v>558.012603924348</v>
       </c>
       <c r="N14" t="n">
-        <v>479.8266174464445</v>
+        <v>633.3404970600403</v>
       </c>
       <c r="O14" t="n">
-        <v>666.4395714324992</v>
+        <v>667.561131752708</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049694</v>
+        <v>737.089429004969</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550902</v>
+        <v>687.2220245550899</v>
       </c>
       <c r="T14" t="n">
-        <v>642.4567546088766</v>
+        <v>642.4567546088763</v>
       </c>
       <c r="U14" t="n">
-        <v>642.4567546088766</v>
+        <v>569.7271815385914</v>
       </c>
       <c r="V14" t="n">
-        <v>498.283502633034</v>
+        <v>569.6789254398884</v>
       </c>
       <c r="W14" t="n">
-        <v>498.283502633034</v>
+        <v>569.6789254398884</v>
       </c>
       <c r="X14" t="n">
-        <v>498.283502633034</v>
+        <v>569.6789254398884</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.8815497853096</v>
+        <v>569.6789254398884</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.6745059020397</v>
+        <v>24.54436736382067</v>
       </c>
       <c r="C15" t="n">
-        <v>159.2099732037588</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D15" t="n">
         <v>15.07983466553977</v>
@@ -5361,46 +5361,46 @@
         <v>53.04316068142009</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R15" t="n">
-        <v>617.9111264193344</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="S15" t="n">
-        <v>604.3328161497017</v>
+        <v>740.4134230073556</v>
       </c>
       <c r="T15" t="n">
-        <v>567.1382106422043</v>
+        <v>703.2188174998582</v>
       </c>
       <c r="U15" t="n">
-        <v>507.4616395878398</v>
+        <v>643.5422464454938</v>
       </c>
       <c r="V15" t="n">
-        <v>444.3296630602293</v>
+        <v>580.4102699178833</v>
       </c>
       <c r="W15" t="n">
-        <v>253.9277102125049</v>
+        <v>390.008317070159</v>
       </c>
       <c r="X15" t="n">
-        <v>214.3674573979567</v>
+        <v>350.4480642556107</v>
       </c>
       <c r="Y15" t="n">
-        <v>168.6745059020397</v>
+        <v>160.0461114078864</v>
       </c>
     </row>
     <row r="16">
@@ -5416,43 +5416,43 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887331</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07983466553977</v>
+        <v>47.71579242887331</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07983466553977</v>
+        <v>86.54496054414828</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07983466553977</v>
+        <v>86.54496054414828</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07983466553977</v>
+        <v>98.74558837756551</v>
       </c>
       <c r="I16" t="n">
-        <v>28.24217778979153</v>
+        <v>98.74558837756551</v>
       </c>
       <c r="J16" t="n">
-        <v>28.24217778979153</v>
+        <v>156.0751583820228</v>
       </c>
       <c r="K16" t="n">
-        <v>138.2492789635306</v>
+        <v>266.0822595557618</v>
       </c>
       <c r="L16" t="n">
-        <v>138.2492789635306</v>
+        <v>410.6187429816018</v>
       </c>
       <c r="M16" t="n">
-        <v>289.6513637301632</v>
+        <v>410.6187429816018</v>
       </c>
       <c r="N16" t="n">
-        <v>289.6513637301632</v>
+        <v>410.6187429816018</v>
       </c>
       <c r="O16" t="n">
-        <v>402.2436925423773</v>
+        <v>410.6187429816018</v>
       </c>
       <c r="P16" t="n">
-        <v>520.716661142668</v>
+        <v>470.2946957351833</v>
       </c>
       <c r="Q16" t="n">
         <v>520.716661142668</v>
@@ -5473,10 +5473,10 @@
         <v>211.9754335064921</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117138</v>
+        <v>98.68003660117137</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099491</v>
+        <v>54.4667121009949</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961945</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718626</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940555</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116202</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993305</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993305</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95335735993305</v>
+        <v>70.95335735993314</v>
       </c>
       <c r="L17" t="n">
-        <v>257.5663113459877</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M17" t="n">
-        <v>338.428210432935</v>
+        <v>267.5427520858376</v>
       </c>
       <c r="N17" t="n">
-        <v>413.7561035686273</v>
+        <v>342.8706452215299</v>
       </c>
       <c r="O17" t="n">
-        <v>447.976738261295</v>
+        <v>377.0912799141976</v>
       </c>
       <c r="P17" t="n">
-        <v>447.976738261295</v>
+        <v>377.0912799141976</v>
       </c>
       <c r="Q17" t="n">
-        <v>563.7042339002528</v>
+        <v>563.7042339002522</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002528</v>
+        <v>563.7042339002522</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051037</v>
+        <v>632.9356035051032</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W17" t="n">
         <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530778</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122036</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237.1072207238857</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C18" t="n">
-        <v>165.3269098924356</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D18" t="n">
-        <v>165.3269098924356</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>165.3269098924356</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>165.3269098924356</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
         <v>15.07983466553977</v>
@@ -5595,49 +5595,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="R18" t="n">
-        <v>617.9111264193344</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="S18" t="n">
-        <v>617.9111264193344</v>
+        <v>617.9111264193342</v>
       </c>
       <c r="T18" t="n">
-        <v>617.9111264193344</v>
+        <v>427.5091735716098</v>
       </c>
       <c r="U18" t="n">
-        <v>427.5091735716101</v>
+        <v>237.1072207238855</v>
       </c>
       <c r="V18" t="n">
-        <v>427.5091735716101</v>
+        <v>237.1072207238855</v>
       </c>
       <c r="W18" t="n">
-        <v>427.5091735716101</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="X18" t="n">
-        <v>427.5091735716101</v>
+        <v>193.6156875924749</v>
       </c>
       <c r="Y18" t="n">
-        <v>237.1072207238857</v>
+        <v>193.6156875924749</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961945</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040789</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210052</v>
       </c>
       <c r="E20" t="n">
         <v>294.5907522718621</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940549</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116205</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
@@ -5753,49 +5753,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>15.07983466553977</v>
+        <v>201.6927886515944</v>
       </c>
       <c r="L20" t="n">
-        <v>61.80067714629985</v>
+        <v>248.4136311323544</v>
       </c>
       <c r="M20" t="n">
-        <v>248.4136311323545</v>
+        <v>329.2755302193016</v>
       </c>
       <c r="N20" t="n">
-        <v>323.7415242680469</v>
+        <v>404.6034233549939</v>
       </c>
       <c r="O20" t="n">
-        <v>357.9621589607146</v>
+        <v>438.8240580476615</v>
       </c>
       <c r="P20" t="n">
-        <v>357.9621589607146</v>
+        <v>438.8240580476615</v>
       </c>
       <c r="Q20" t="n">
-        <v>544.5751129467693</v>
+        <v>625.4370120337162</v>
       </c>
       <c r="R20" t="n">
-        <v>610.5283920402442</v>
+        <v>632.9356035051031</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7597616450951</v>
+        <v>632.9356035051031</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9917332769886</v>
+        <v>707.1675751369968</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879303</v>
+        <v>730.3229325879297</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235036</v>
+        <v>689.465566023503</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530776</v>
+        <v>626.5008757530771</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122034</v>
+        <v>540.8060308122029</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>373.1878275815399</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C21" t="n">
-        <v>183.7755533145036</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D21" t="n">
-        <v>183.7755533145036</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E21" t="n">
-        <v>183.7755533145036</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F21" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G21" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H21" t="n">
         <v>15.07983466553977</v>
@@ -5832,49 +5832,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769885</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769886</v>
+        <v>610.9722821019997</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769886</v>
+        <v>420.5703292542754</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9917332769886</v>
+        <v>395.8837403609884</v>
       </c>
       <c r="U21" t="n">
-        <v>753.9917332769886</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="V21" t="n">
-        <v>753.9917332769886</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W21" t="n">
-        <v>753.9917332769886</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X21" t="n">
-        <v>563.5897804292642</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.1878275815399</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961952</v>
+        <v>463.3923242961943</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040796</v>
+        <v>410.1015905040787</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210059</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718628</v>
+        <v>294.590752271862</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940549</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K23" t="n">
-        <v>69.29926861768732</v>
+        <v>97.9063192726193</v>
       </c>
       <c r="L23" t="n">
-        <v>255.9122226037422</v>
+        <v>144.6271617533793</v>
       </c>
       <c r="M23" t="n">
-        <v>336.7741216906894</v>
+        <v>225.4890608403265</v>
       </c>
       <c r="N23" t="n">
-        <v>412.1020148263818</v>
+        <v>412.1020148263812</v>
       </c>
       <c r="O23" t="n">
-        <v>446.3226495190495</v>
+        <v>446.3226495190488</v>
       </c>
       <c r="P23" t="n">
-        <v>446.3226495190495</v>
+        <v>446.3226495190488</v>
       </c>
       <c r="Q23" t="n">
-        <v>632.9356035051044</v>
+        <v>632.9356035051035</v>
       </c>
       <c r="R23" t="n">
-        <v>632.9356035051044</v>
+        <v>632.9356035051035</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051044</v>
+        <v>632.9356035051035</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369979</v>
+        <v>707.167575136997</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879311</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235044</v>
+        <v>689.4655660235035</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530784</v>
+        <v>626.5008757530775</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122042</v>
+        <v>540.8060308122032</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>563.5897804292647</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C24" t="n">
-        <v>374.1775061622284</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D24" t="n">
-        <v>292.3324902821064</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
-        <v>292.3324902821064</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F24" t="n">
-        <v>292.3324902821064</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G24" t="n">
-        <v>142.0854150552106</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142014</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264138002</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998551</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188894</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769893</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769893</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769893</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769893</v>
+        <v>556.6509361119296</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9917332769893</v>
+        <v>395.8837403609884</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9917332769893</v>
+        <v>395.8837403609884</v>
       </c>
       <c r="V24" t="n">
-        <v>563.5897804292647</v>
+        <v>395.8837403609884</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5897804292647</v>
+        <v>395.8837403609884</v>
       </c>
       <c r="X24" t="n">
-        <v>563.5897804292647</v>
+        <v>205.4817875132641</v>
       </c>
       <c r="Y24" t="n">
-        <v>563.5897804292647</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553979</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.796657987411</v>
+        <v>882.7966579874115</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942531</v>
+        <v>757.2538204942537</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350257</v>
+        <v>597.6637583350262</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471347</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141569</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845021</v>
+        <v>63.71974859845031</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589548</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.9427824528798</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523989</v>
+        <v>634.0135279524009</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581089</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212562</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.473663923991</v>
       </c>
       <c r="P26" t="n">
         <v>1654.882514315173</v>
@@ -6251,25 +6251,25 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621684</v>
+        <v>1627.073153621685</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>357.1245319368662</v>
+        <v>40.82673836397128</v>
       </c>
       <c r="C27" t="n">
-        <v>357.1245319368662</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634018</v>
       </c>
       <c r="N27" t="n">
         <v>577.794567574161</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512952</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="S27" t="n">
-        <v>599.594568612907</v>
+        <v>592.6557242955726</v>
       </c>
       <c r="T27" t="n">
-        <v>598.0933836821098</v>
+        <v>375.5133772193198</v>
       </c>
       <c r="U27" t="n">
-        <v>574.1102332044455</v>
+        <v>135.8890645961999</v>
       </c>
       <c r="V27" t="n">
-        <v>424.7483022181842</v>
+        <v>108.4505086452895</v>
       </c>
       <c r="W27" t="n">
-        <v>370.9908950939311</v>
+        <v>54.69310152103629</v>
       </c>
       <c r="X27" t="n">
-        <v>367.124062856083</v>
+        <v>50.82626928318813</v>
       </c>
       <c r="Y27" t="n">
-        <v>357.1245319368662</v>
+        <v>40.82673836397128</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C28" t="n">
-        <v>82.47399327165044</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D28" t="n">
-        <v>82.47399327165044</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E28" t="n">
-        <v>82.47399327165044</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F28" t="n">
-        <v>116.7118318490036</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G28" t="n">
-        <v>116.7118318490036</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8955811896446</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I28" t="n">
-        <v>163.8955811896446</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K28" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L28" t="n">
-        <v>256.2082727013258</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M28" t="n">
-        <v>256.2082727013258</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="N28" t="n">
-        <v>256.2082727013258</v>
+        <v>222.3019056889985</v>
       </c>
       <c r="O28" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P28" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.2082727013258</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909797</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239877</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.6757382032153</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973733</v>
+        <v>48.13006019737348</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389702</v>
+        <v>39.61015627389712</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874115</v>
+        <v>882.7966579874108</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942537</v>
+        <v>757.2538204942529</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350262</v>
+        <v>597.6637583350254</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471348</v>
+        <v>406.0329511471339</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141575</v>
+        <v>198.6052517141566</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845022</v>
+        <v>63.71974859845029</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589552</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528782</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523993</v>
+        <v>634.0135279523987</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581074</v>
+        <v>926.2253300581069</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P29" t="n">
         <v>1654.882514315172</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R29" t="n">
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883925</v>
+        <v>1781.660986883924</v>
       </c>
       <c r="T29" t="n">
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020827</v>
+        <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366663</v>
+        <v>1353.629035366662</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>241.2916345196942</v>
+        <v>77.93204758249175</v>
       </c>
       <c r="C30" t="n">
-        <v>241.2916345196942</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D30" t="n">
-        <v>241.2916345196942</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E30" t="n">
-        <v>241.2916345196942</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F30" t="n">
-        <v>80.86391823693825</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G30" t="n">
         <v>35.91669941514207</v>
@@ -6543,13 +6543,13 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102243</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593965</v>
+        <v>191.2129445593964</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8895911634019</v>
+        <v>372.8895911634018</v>
       </c>
       <c r="N30" t="n">
         <v>577.794567574161</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512952</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512952</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512952</v>
+        <v>592.6557242955726</v>
       </c>
       <c r="T30" t="n">
-        <v>575.9782733750424</v>
+        <v>375.5133772193198</v>
       </c>
       <c r="U30" t="n">
-        <v>551.9951228973781</v>
+        <v>351.5302267416554</v>
       </c>
       <c r="V30" t="n">
-        <v>308.9154048010122</v>
+        <v>324.091670790745</v>
       </c>
       <c r="W30" t="n">
-        <v>255.157997676759</v>
+        <v>270.3342636664918</v>
       </c>
       <c r="X30" t="n">
-        <v>251.291165438911</v>
+        <v>266.4674314286437</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.2916345196942</v>
+        <v>256.4679005094268</v>
       </c>
     </row>
     <row r="31">
@@ -6598,70 +6598,70 @@
         <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514207</v>
+        <v>82.47399327165036</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91669941514207</v>
+        <v>227.4642159526132</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91669941514207</v>
+        <v>227.4642159526132</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91669941514207</v>
+        <v>227.4642159526132</v>
       </c>
       <c r="N31" t="n">
-        <v>230.9116466383145</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="O31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.1625141760096</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909796</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239876</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032152</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259941</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737347</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.6101562738971</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514207</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.789988510278</v>
+        <v>1014.789988510277</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806682</v>
+        <v>877.5242945806679</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601004</v>
+        <v>752.8175276601</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734631</v>
+        <v>594.0635360734628</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581618</v>
+        <v>403.2687994581615</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977754</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465902</v>
+        <v>62.62773805465896</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559494</v>
+        <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>377.3257080180681</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>636.2158862857848</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570756</v>
+        <v>929.2471211596886</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.744350082337</v>
       </c>
       <c r="O32" t="n">
         <v>1443.218367059349</v>
@@ -6728,10 +6728,10 @@
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
-        <v>1725.264198178543</v>
+        <v>1725.264198178542</v>
       </c>
       <c r="V32" t="n">
         <v>1617.62043735199</v>
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.4408756829093</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>196.4408756829093</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
         <v>35.660759443941</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800941</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="T33" t="n">
-        <v>744.2604649659427</v>
+        <v>785.2607218045525</v>
       </c>
       <c r="U33" t="n">
-        <v>721.1133850608685</v>
+        <v>762.1136418994785</v>
       </c>
       <c r="V33" t="n">
-        <v>694.5108996825483</v>
+        <v>519.0339238031125</v>
       </c>
       <c r="W33" t="n">
-        <v>425.1123304128396</v>
+        <v>249.6353545334039</v>
       </c>
       <c r="X33" t="n">
-        <v>422.0815687475816</v>
+        <v>246.604592868146</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.4408756829093</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6841,64 +6841,64 @@
         <v>35.660759443941</v>
       </c>
       <c r="E34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="G34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="H34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="I34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="J34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="K34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="L34" t="n">
-        <v>107.5707154307948</v>
+        <v>35.660759443941</v>
       </c>
       <c r="M34" t="n">
-        <v>260.0540801966771</v>
+        <v>222.8653984859931</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537979</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537979</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537979</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>249.2804059537979</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966768</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842371</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898353</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416532</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370222</v>
       </c>
       <c r="W34" t="n">
-        <v>46.201979080992</v>
+        <v>46.20197908099188</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010584</v>
+        <v>38.51814573010578</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.019067536109</v>
+        <v>623.0190675361096</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513513</v>
+        <v>544.0833815513517</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756357</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338509</v>
       </c>
       <c r="F35" t="n">
         <v>244.8179102634017</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786685</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J35" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K35" t="n">
-        <v>20.83686474960228</v>
+        <v>51.58918822373226</v>
       </c>
       <c r="L35" t="n">
-        <v>278.6930660259305</v>
+        <v>98.31003070449231</v>
       </c>
       <c r="M35" t="n">
-        <v>526.1308349274577</v>
+        <v>356.1662319808208</v>
       </c>
       <c r="N35" t="n">
-        <v>783.9870362037859</v>
+        <v>431.4941251165131</v>
       </c>
       <c r="O35" t="n">
-        <v>1041.843237480114</v>
+        <v>689.3503263928417</v>
       </c>
       <c r="P35" t="n">
-        <v>1041.843237480114</v>
+        <v>943.7478503389697</v>
       </c>
       <c r="Q35" t="n">
-        <v>1041.843237480114</v>
+        <v>943.7478503389697</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.843237480114</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.843237480114</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.843237480114</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984133</v>
+        <v>992.5294845984145</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413444</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782764</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.07772624476</v>
+        <v>726.0777262447607</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>383.8123428952241</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C36" t="n">
-        <v>194.4000686281878</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D36" t="n">
-        <v>194.4000686281878</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548261</v>
+        <v>58.80019076548263</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938567</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857554</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="T36" t="n">
-        <v>560.8984387095026</v>
+        <v>553.9595943921681</v>
       </c>
       <c r="U36" t="n">
-        <v>560.8984387095026</v>
+        <v>553.9595943921681</v>
       </c>
       <c r="V36" t="n">
-        <v>560.8984387095026</v>
+        <v>310.8798762958022</v>
       </c>
       <c r="W36" t="n">
-        <v>383.8123428952241</v>
+        <v>240.344859132906</v>
       </c>
       <c r="X36" t="n">
-        <v>383.8123428952241</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y36" t="n">
-        <v>383.8123428952241</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="C37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="D37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="E37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="F37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="G37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411075</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411099</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411099</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078075</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078075</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960228</v>
+        <v>20.83686474960231</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361096</v>
+        <v>623.01906753611</v>
       </c>
       <c r="C38" t="n">
-        <v>544.083381551352</v>
+        <v>544.0833815513523</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756362</v>
+        <v>477.7066225756366</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338513</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634017</v>
+        <v>244.817910263402</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786671</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998706</v>
+        <v>51.57576979998702</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57576979998706</v>
+        <v>51.57576979998702</v>
       </c>
       <c r="K38" t="n">
-        <v>51.57576979998706</v>
+        <v>309.4319710763154</v>
       </c>
       <c r="L38" t="n">
-        <v>166.725781804794</v>
+        <v>567.2881723526439</v>
       </c>
       <c r="M38" t="n">
-        <v>424.5819830811222</v>
+        <v>648.1500714395911</v>
       </c>
       <c r="N38" t="n">
-        <v>682.4381843574505</v>
+        <v>723.4779645752834</v>
       </c>
       <c r="O38" t="n">
-        <v>716.6588190501182</v>
+        <v>757.6985992679511</v>
       </c>
       <c r="P38" t="n">
-        <v>971.0563429962463</v>
+        <v>757.6985992679511</v>
       </c>
       <c r="Q38" t="n">
-        <v>971.0563429962463</v>
+        <v>938.2225561746093</v>
       </c>
       <c r="R38" t="n">
-        <v>971.0563429962463</v>
+        <v>938.2225561746093</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962463</v>
+        <v>971.0563429962471</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.153696984131</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.843237480114</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984145</v>
       </c>
       <c r="W38" t="n">
-        <v>926.027165841345</v>
+        <v>926.0271658413455</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782769</v>
+        <v>837.4175233782775</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447606</v>
+        <v>726.0777262447612</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>295.4410647660593</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="C39" t="n">
-        <v>295.4410647660593</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="D39" t="n">
-        <v>295.4410647660593</v>
+        <v>194.4000686281878</v>
       </c>
       <c r="E39" t="n">
-        <v>295.4410647660593</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F39" t="n">
-        <v>135.0133484833034</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G39" t="n">
-        <v>129.2847539859532</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H39" t="n">
-        <v>129.2847539859532</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548261</v>
+        <v>58.80019076548263</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938567</v>
@@ -7281,22 +7281,22 @@
         <v>778.0407857857554</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857554</v>
+        <v>560.8984387095026</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857554</v>
+        <v>560.8984387095026</v>
       </c>
       <c r="V39" t="n">
-        <v>778.0407857857554</v>
+        <v>317.8187206131366</v>
       </c>
       <c r="W39" t="n">
-        <v>514.9490591493629</v>
+        <v>317.8187206131366</v>
       </c>
       <c r="X39" t="n">
-        <v>295.4410647660593</v>
+        <v>317.8187206131366</v>
       </c>
       <c r="Y39" t="n">
-        <v>295.4410647660593</v>
+        <v>194.4000686281878</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411075</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411075</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078061</v>
+        <v>39.27276256078068</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960228</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7394,7 +7394,7 @@
         <v>610.3878506465749</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706555</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F41" t="n">
         <v>314.7730796660722</v>
@@ -7409,34 +7409,34 @@
         <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323785</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308617</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116217</v>
+        <v>306.7265692632487</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218902</v>
+        <v>626.1881398735171</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.701573280904</v>
+        <v>701.5160330092094</v>
       </c>
       <c r="O41" t="n">
-        <v>1253.513722343994</v>
+        <v>974.3363392251983</v>
       </c>
       <c r="P41" t="n">
-        <v>1253.513722343994</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1403.298774200268</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.298774200268</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5138647203562</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H42" t="n">
-        <v>136.5138647203562</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="I42" t="n">
         <v>28.06597548400536</v>
@@ -7512,28 +7512,28 @@
         <v>785.2698965201585</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201585</v>
+        <v>649.1892896625043</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201585</v>
+        <v>514.6068918299668</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201585</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="U42" t="n">
-        <v>555.795015984563</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="V42" t="n">
-        <v>312.715297888197</v>
+        <v>297.4645447537141</v>
       </c>
       <c r="W42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y42" t="n">
-        <v>286.760939947252</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7582,10 +7582,10 @@
         <v>28.06597548400536</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Q43" t="n">
         <v>130.133623560695</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753172</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564255</v>
+        <v>708.1276389564248</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465758</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706565</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660732</v>
+        <v>314.7730796660721</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7652,25 +7652,25 @@
         <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>707.9121095349432</v>
+        <v>469.3124380116219</v>
       </c>
       <c r="M44" t="n">
-        <v>788.7740086218904</v>
+        <v>788.7740086218903</v>
       </c>
       <c r="N44" t="n">
         <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.521879496893</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="P44" t="n">
-        <v>1384.940325262768</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1384.940325262768</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1384.940325262768</v>
+        <v>1371.58247835231</v>
       </c>
       <c r="S44" t="n">
         <v>1384.940325262768</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181024</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>337.6999675559126</v>
+        <v>178.3130507109011</v>
       </c>
       <c r="C45" t="n">
-        <v>188.8460917229736</v>
+        <v>178.3130507109011</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400536</v>
+        <v>178.3130507109011</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400536</v>
+        <v>178.3130507109011</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06597548400536</v>
+        <v>178.3130507109011</v>
       </c>
       <c r="G45" t="n">
         <v>28.06597548400536</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201586</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201586</v>
+        <v>778.3310522028241</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201586</v>
+        <v>584.805000364436</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201586</v>
+        <v>584.805000364436</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201586</v>
+        <v>584.805000364436</v>
       </c>
       <c r="V45" t="n">
-        <v>542.1901784237926</v>
+        <v>584.805000364436</v>
       </c>
       <c r="W45" t="n">
-        <v>516.2358204828477</v>
+        <v>315.4064310947273</v>
       </c>
       <c r="X45" t="n">
-        <v>516.2358204828477</v>
+        <v>315.4064310947273</v>
       </c>
       <c r="Y45" t="n">
-        <v>516.2358204828477</v>
+        <v>315.4064310947273</v>
       </c>
     </row>
     <row r="46">
@@ -7810,25 +7810,25 @@
         <v>28.06597548400536</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>124.6176159598924</v>
       </c>
       <c r="S46" t="n">
         <v>130.133623560695</v>
@@ -8532,7 +8532,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
@@ -8541,13 +8541,13 @@
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>163.3068757699624</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>166.5187640737787</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,10 +8778,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913206</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9483,7 +9483,7 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>240.3045437566415</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
@@ -9723,10 +9723,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.7768813100006</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466385</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.441042905518373</v>
+        <v>7.44104290551843</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
@@ -23264,19 +23264,19 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033359</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>2.844154787889863</v>
+        <v>67.7807687934739</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240826</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929905</v>
+        <v>16.73328122929904</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958195</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V11" t="n">
         <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613493</v>
+        <v>15.63936994613499</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>137.7999177740843</v>
+        <v>7.44104290551843</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891595</v>
@@ -23507,13 +23507,13 @@
         <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095807</v>
+        <v>52.19197549033365</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958192</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.6837459183683</v>
       </c>
       <c r="W14" t="n">
         <v>159.7481996726991</v>
@@ -23561,7 +23561,7 @@
         <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.63936994613491</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>762365.3037123372</v>
+        <v>762365.3037123368</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>705545.5961411678</v>
+        <v>705545.5961411675</v>
       </c>
       <c r="C2" t="n">
         <v>705545.5961411678</v>
@@ -26320,40 +26320,40 @@
         <v>705953.0525753198</v>
       </c>
       <c r="E2" t="n">
-        <v>607788.3429993069</v>
+        <v>607788.342999307</v>
       </c>
       <c r="F2" t="n">
-        <v>607788.3429993074</v>
+        <v>607788.3429993067</v>
       </c>
       <c r="G2" t="n">
-        <v>706974.8390868296</v>
+        <v>706974.8390868295</v>
       </c>
       <c r="H2" t="n">
-        <v>706974.8390868292</v>
+        <v>706974.8390868295</v>
       </c>
       <c r="I2" t="n">
-        <v>706974.8390868291</v>
+        <v>706974.8390868293</v>
       </c>
       <c r="J2" t="n">
         <v>706974.8390868298</v>
       </c>
       <c r="K2" t="n">
-        <v>706974.8390868296</v>
+        <v>706974.8390868297</v>
       </c>
       <c r="L2" t="n">
-        <v>706974.83908683</v>
+        <v>706974.8390868298</v>
       </c>
       <c r="M2" t="n">
-        <v>706974.8390868298</v>
+        <v>706974.8390868291</v>
       </c>
       <c r="N2" t="n">
-        <v>706974.8390868296</v>
+        <v>706974.8390868286</v>
       </c>
       <c r="O2" t="n">
         <v>706974.8390868295</v>
       </c>
       <c r="P2" t="n">
-        <v>706974.8390868293</v>
+        <v>706974.8390868296</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787141</v>
+        <v>279126.115178714</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913326</v>
+        <v>95439.52541913337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262466</v>
+        <v>96101.69331262485</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.3662923227</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924376</v>
+        <v>72254.91485924367</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,28 +26424,28 @@
         <v>419547.2774058438</v>
       </c>
       <c r="E4" t="n">
-        <v>307823.2566717783</v>
+        <v>307823.2566717784</v>
       </c>
       <c r="F4" t="n">
         <v>307823.2566717784</v>
       </c>
       <c r="G4" t="n">
-        <v>378431.1247150002</v>
+        <v>378431.1247150003</v>
       </c>
       <c r="H4" t="n">
-        <v>378431.1247150002</v>
+        <v>378431.1247150003</v>
       </c>
       <c r="I4" t="n">
         <v>378431.1247150002</v>
       </c>
       <c r="J4" t="n">
-        <v>379258.4930688672</v>
+        <v>379258.4930688671</v>
       </c>
       <c r="K4" t="n">
-        <v>379258.4930688672</v>
+        <v>379258.4930688671</v>
       </c>
       <c r="L4" t="n">
-        <v>379243.7031014886</v>
+        <v>379243.7031014887</v>
       </c>
       <c r="M4" t="n">
         <v>378433.7657281702</v>
@@ -26479,7 +26479,7 @@
         <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
         <v>38672.33876582418</v>
@@ -26488,22 +26488,22 @@
         <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016351</v>
+        <v>47449.6772201635</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.29559868729</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.29559868729</v>
+        <v>40913.2955986873</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887323</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252260.8668607125</v>
+        <v>252256.400476507</v>
       </c>
       <c r="C6" t="n">
-        <v>252260.8668607125</v>
+        <v>252256.4004765073</v>
       </c>
       <c r="D6" t="n">
-        <v>251589.8778756857</v>
+        <v>251586.6847928372</v>
       </c>
       <c r="E6" t="n">
-        <v>-7803.985788933358</v>
+        <v>-8113.943589206742</v>
       </c>
       <c r="F6" t="n">
-        <v>271322.1293897813</v>
+        <v>271012.1715895071</v>
       </c>
       <c r="G6" t="n">
-        <v>194431.850186872</v>
+        <v>194431.8501868716</v>
       </c>
       <c r="H6" t="n">
-        <v>289871.3756060049</v>
+        <v>289871.375606005</v>
       </c>
       <c r="I6" t="n">
-        <v>289871.3756060047</v>
+        <v>289871.375606005</v>
       </c>
       <c r="J6" t="n">
-        <v>136770.3857909198</v>
+        <v>136770.3857909199</v>
       </c>
       <c r="K6" t="n">
-        <v>280266.6687977988</v>
+        <v>280266.668797799</v>
       </c>
       <c r="L6" t="n">
-        <v>184304.6950898686</v>
+        <v>184304.6950898682</v>
       </c>
       <c r="M6" t="n">
-        <v>241430.4114676495</v>
+        <v>241430.4114676489</v>
       </c>
       <c r="N6" t="n">
-        <v>287627.7777599722</v>
+        <v>287627.7777599712</v>
       </c>
       <c r="O6" t="n">
-        <v>212101.9680068246</v>
+        <v>212101.9680068247</v>
       </c>
       <c r="P6" t="n">
-        <v>284356.8828660683</v>
+        <v>284356.8828660685</v>
       </c>
     </row>
   </sheetData>
@@ -26698,28 +26698,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K2" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="O2" t="n">
         <v>241.009769215476</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="L3" t="n">
         <v>101.1713840758393</v>
@@ -26796,22 +26796,22 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.9587426892761</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
@@ -26820,10 +26820,10 @@
         <v>445.7594930492624</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="O4" t="n">
         <v>350.824693550067</v>
@@ -26917,10 +26917,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.1853437500844</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407808</v>
+        <v>120.1271166407811</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540338</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929161</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758394</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.460809370029</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003827</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.1853437500844</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.2171558310243</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
         <v>350.2054973811788</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>17.12047468788361</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27932,19 +27932,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>184.700252441442</v>
       </c>
       <c r="D9" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>146.144319312168</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.83566399273495</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -27986,19 +27986,19 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>220.1850364940121</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28111,16 +28111,16 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>158.49535186664</v>
+        <v>112.9095207196073</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
         <v>112.4091523741034</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15.09197235108879</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742198</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>70.05720021105228</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,10 +28211,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
         <v>178.1482641530678</v>
@@ -28226,16 +28226,16 @@
         <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
+        <v>52.15098759615518</v>
+      </c>
+      <c r="W12" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="W12" t="n">
-        <v>84.85109613777229</v>
-      </c>
       <c r="X12" t="n">
-        <v>28.81498112022345</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="13">
@@ -28260,7 +28260,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H13" t="n">
         <v>165.8243976546666</v>
@@ -28269,25 +28269,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>120.239607582909</v>
+        <v>160.9804340829603</v>
       </c>
       <c r="K13" t="n">
+        <v>67.02998013919</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="L13" t="n">
-        <v>32.15181624817889</v>
-      </c>
       <c r="M13" t="n">
-        <v>164.5038051457223</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928136</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2169859636892</v>
@@ -28348,28 +28348,28 @@
         <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
+        <v>76.78161896459409</v>
+      </c>
+      <c r="K14" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="K14" t="n">
-        <v>6.727192146300993</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
         <v>106.8192473728358</v>
       </c>
       <c r="N14" t="n">
-        <v>56.29506509273601</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15.09197235108879</v>
+        <v>102.3956102544023</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R14" t="n">
         <v>178.1482641530678</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>42.60376779404069</v>
       </c>
       <c r="C15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>16.48347792374167</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28427,7 +28427,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,10 +28448,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
         <v>178.1482641530678</v>
@@ -28466,13 +28466,13 @@
         <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>78.20665025776444</v>
+        <v>78.20665025776452</v>
       </c>
       <c r="X15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="16">
@@ -28488,46 +28488,46 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G16" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
+        <v>164.852968067965</v>
+      </c>
+      <c r="J16" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="J16" t="n">
-        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817889</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
+        <v>25.21686539889348</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.52015736928138</v>
+      </c>
+      <c r="O16" t="n">
+        <v>37.47888399777683</v>
+      </c>
+      <c r="P16" t="n">
+        <v>118.7573390553817</v>
+      </c>
+      <c r="Q16" t="n">
         <v>178.1482641530678</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16.52015736928136</v>
-      </c>
-      <c r="O16" t="n">
-        <v>151.2085090606193</v>
-      </c>
-      <c r="P16" t="n">
-        <v>178.1482641530678</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
         <v>178.1482641530678</v>
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300993</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>69.7036900587851</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q17" t="n">
-        <v>206.6081972787935</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R17" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.4556438012303</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28655,7 +28655,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28664,7 +28664,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161051</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -28694,22 +28694,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>26.47299028624317</v>
       </c>
       <c r="U18" t="n">
-        <v>48.73013617764146</v>
+        <v>48.73013617764153</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>223.6479657769151</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.88635281477846</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I20" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300993</v>
+        <v>195.2251254655481</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q20" t="n">
         <v>278.2096703566691</v>
       </c>
       <c r="R20" t="n">
-        <v>261.5010192141597</v>
+        <v>202.4558802019496</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,19 +28889,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>117.5502022432283</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757246</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9709236054903</v>
+        <v>190.5312006011362</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764154</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.15098759615518</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.81498112022345</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.88635281477846</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29035,52 +29035,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I23" t="n">
         <v>241.0097692154761</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K23" t="n">
-        <v>61.49429714847022</v>
+        <v>90.39030791102783</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3051631366614</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108879</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566693</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R23" t="n">
         <v>194.8815453823669</v>
@@ -29089,22 +29089,22 @@
         <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="24">
@@ -29117,10 +29117,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>78.14574935525778</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757218</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9709236054903</v>
+        <v>55.81139981205854</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615492</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477852</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="27">
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>182.657212965025</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
@@ -29405,22 +29405,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>92.78060923900355</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="28">
@@ -29433,7 +29433,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.484750524001</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29442,64 +29442,64 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>173.5105575491064</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H28" t="n">
-        <v>213.484750524001</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I28" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>213.484750524001</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918999</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889346</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928136</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O28" t="n">
-        <v>37.4788839977768</v>
+        <v>81.78252893415173</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
-        <v>213.484750524001</v>
+        <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="C29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="E29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="F29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="G29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="H29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="I29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="J29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="K29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="M29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="N29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="O29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="P29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="R29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="S29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>145.9229568386897</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,10 +29600,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>104.2468578410486</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
         <v>125.7355245857741</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390261</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161051</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="31">
@@ -29670,7 +29670,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29694,22 +29694,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918999</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889346</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N31" t="n">
-        <v>213.484750524001</v>
+        <v>55.60934749392417</v>
       </c>
       <c r="O31" t="n">
-        <v>73.08582090453912</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P31" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29718,25 +29718,25 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="T31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="U31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="V31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="W31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="X31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240009</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="M32" t="n">
-        <v>194.1953356407514</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407512</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="33">
@@ -29831,7 +29831,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29879,22 +29879,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>166.8527502464804</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>14.54989104406272</v>
       </c>
     </row>
     <row r="34">
@@ -29913,7 +29913,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3124603908652</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29937,10 +29937,10 @@
         <v>32.15181624817892</v>
       </c>
       <c r="M34" t="n">
-        <v>179.240466172512</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928138</v>
+        <v>43.20198309433676</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777683</v>
@@ -29952,28 +29952,28 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4299611556341</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3124603908652</v>
+        <v>214.3124603908653</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
         <v>241.0097692154761</v>
@@ -30010,28 +30010,28 @@
         <v>76.78161896459409</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146301029</v>
+        <v>37.7901451504727</v>
       </c>
       <c r="L35" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>168.2584543581616</v>
+        <v>178.7821234236175</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3720284248848</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006673</v>
+        <v>225.8945117006675</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108883</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q35" t="n">
         <v>89.71173703742201</v>
       </c>
       <c r="R35" t="n">
-        <v>194.8815453823669</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
         <v>227.5169945584482</v>
@@ -30040,19 +30040,19 @@
         <v>222.4658813998193</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="36">
@@ -30065,13 +30065,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161073</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30122,13 +30122,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>91.38934872087594</v>
+        <v>196.8749165857443</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.173422598815</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -30192,19 +30192,19 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S37" t="n">
-        <v>235.4380443661806</v>
+        <v>270.9945463000277</v>
       </c>
       <c r="T37" t="n">
         <v>223.761558450323</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
         <v>76.78161896459409</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146301029</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L38" t="n">
-        <v>69.12037325661302</v>
+        <v>213.2680391874428</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>184.3720284248848</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562688</v>
+        <v>15.09197235108883</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742201</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
         <v>194.8815453823669</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>260.6824357924257</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
     </row>
     <row r="39">
@@ -30308,19 +30308,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>143.0732959222501</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
         <v>52.47517038390262</v>
@@ -30353,22 +30353,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.243774206983062</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>101.1998206689263</v>
       </c>
     </row>
     <row r="40">
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>204.2572768609994</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
         <v>165.8243976546666</v>
@@ -30402,7 +30402,7 @@
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.239607582909</v>
+        <v>155.796109516756</v>
       </c>
       <c r="K40" t="n">
         <v>67.02998013919</v>
@@ -30435,13 +30435,13 @@
         <v>223.761558450323</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0591682562688</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,7 +30481,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K41" t="n">
         <v>241.009769215476</v>
@@ -30493,25 +30493,25 @@
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="O41" t="n">
-        <v>117.7692064347709</v>
-      </c>
       <c r="P41" t="n">
-        <v>15.09197235108883</v>
+        <v>218.9244427309476</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8815453823669</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4658813998193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30551,13 +30551,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
         <v>52.47517038390262</v>
@@ -30584,22 +30584,22 @@
         <v>6.869455874161073</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>58.3542174657922</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>10.04793776664908</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30654,13 +30654,13 @@
         <v>16.52015736928138</v>
       </c>
       <c r="O43" t="n">
-        <v>140.5775184186754</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P43" t="n">
         <v>58.4785989002489</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.2169859636892</v>
+        <v>230.3156203845878</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
@@ -30724,28 +30724,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
+        <v>39.60432012897681</v>
+      </c>
+      <c r="P44" t="n">
+        <v>15.09197235108881</v>
+      </c>
+      <c r="Q44" t="n">
         <v>241.009769215476</v>
       </c>
-      <c r="P44" t="n">
-        <v>24.60555393278032</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>89.71173703742201</v>
-      </c>
       <c r="R44" t="n">
-        <v>194.8815453823669</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S44" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
         <v>241.009769215476</v>
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>41.02804781767787</v>
       </c>
       <c r="C45" t="n">
-        <v>40.15281444975636</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7355245857741</v>
@@ -30818,13 +30818,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161062</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9709236054903</v>
@@ -30833,10 +30833,10 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30882,7 +30882,7 @@
         <v>67.02998013919</v>
       </c>
       <c r="L46" t="n">
-        <v>135.2504506690775</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M46" t="n">
         <v>25.21686539889348</v>
@@ -30897,13 +30897,13 @@
         <v>58.47859890024889</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>224.7438955352923</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661806</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
         <v>223.761558450323</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P11" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R11" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P14" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R14" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K15" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N16" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P17" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R17" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P20" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R20" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P23" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R23" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P26" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R26" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631732</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217849</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.5197779264594</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246053</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727851</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032859</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401896</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556015</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P29" t="n">
-        <v>58.4867195752193</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178815</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R29" t="n">
-        <v>25.5485706731817</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610819</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705385</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650131</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729618</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884582</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.1398759200017</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447576</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133247</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427549</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134019</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862167</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922248</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935657</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971357</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773295</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014374</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752832</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786391</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.9183263630919</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837953</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221257</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542648</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629247</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679427</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590773</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35146,7 +35146,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>81.71373290204596</v>
+        <v>36.1279017550132</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4210720067668</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>188.4979333192472</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641135</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.43652711564582</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404387</v>
+        <v>133.0312521404386</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.44748922591536</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>40.74082650005136</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1182840138778</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M13" t="n">
-        <v>139.2869397468288</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258595</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N14" t="n">
-        <v>132.3838460378798</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>87.30363790331343</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564584</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,46 +35784,46 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235712</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.22138193462118</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840125</v>
       </c>
       <c r="I16" t="n">
-        <v>13.29529608510278</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K16" t="n">
         <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9964479048889</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>113.7296250628425</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6696652528189</v>
+        <v>60.27874015513277</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937859</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150836</v>
+        <v>56.43790171150846</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,34 +35887,34 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.4979333192472</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641135</v>
+        <v>151.3823760051964</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.8964602413715</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853623</v>
+        <v>69.93067636853634</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716528</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>47.29712943433478</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35972,13 +35972,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O18" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,37 +36121,37 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258595</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M20" t="n">
-        <v>188.4979333192472</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514377</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="R20" t="n">
-        <v>66.61947383179279</v>
+        <v>7.574334819582758</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853623</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716528</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.29712943433478</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296708</v>
+        <v>118.5181001296707</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O21" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>54.76710500216922</v>
+        <v>83.66311576472681</v>
       </c>
       <c r="L23" t="n">
-        <v>188.4979333192473</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641135</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514377</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936132</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716516</v>
+        <v>74.98178952716522</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433466</v>
+        <v>47.29712943433472</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M24" t="n">
-        <v>183.5117642464707</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594068</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583776999</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065868</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704122</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729121</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163416</v>
+        <v>18.60320514163406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,7 +36729,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.02756955202867</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36738,19 +36738,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.58367533065972</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66035286933443</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24514294109206</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>188.2678851251075</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>44.3036449363749</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05478936836689</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.7031315594068</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583776999</v>
       </c>
       <c r="L29" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065868</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704122</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933622</v>
       </c>
       <c r="P29" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729121</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865789</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181805</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.02756955202858</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4547703848109</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>196.9645931547196</v>
+        <v>39.08919012464279</v>
       </c>
       <c r="O31" t="n">
-        <v>35.60693690676231</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262711</v>
+        <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734511</v>
+        <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>275.8740215871627</v>
+        <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360089</v>
+        <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602265</v>
+        <v>228.7616333101125</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397764</v>
+        <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534432</v>
+        <v>124.6007233534433</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849836</v>
+        <v>19.43091500849841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>72.63631917864024</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>154.0236007736185</v>
+        <v>189.0955949919718</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>26.68182572505538</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.88249923523116</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>31.06295300417167</v>
       </c>
       <c r="L35" t="n">
-        <v>260.4608093700285</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M35" t="n">
-        <v>249.9371403045729</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4608093700285</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.9671959051798</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.1776228739018</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90862676361892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>35.55650193384715</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079271</v>
+        <v>31.04939904079265</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="L38" t="n">
-        <v>116.3131434391989</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700285</v>
+        <v>81.67868594641129</v>
       </c>
       <c r="N38" t="n">
-        <v>260.4608093700285</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O38" t="n">
         <v>34.56629766936128</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9671959051799</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>33.16544123397755</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59328685644952</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90862676361903</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.55650193384693</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2281502508819</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>234.282577069175</v>
@@ -37789,25 +37789,25 @@
         <v>322.6884551618873</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0985501606198</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O41" t="n">
-        <v>152.3355041041322</v>
+        <v>275.5760668848373</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>203.8324703798588</v>
       </c>
       <c r="Q41" t="n">
         <v>151.298032178054</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>103.0986344208986</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,28 +38020,28 @@
         <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>288.202539398062</v>
+        <v>47.19277018258592</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641132</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
         <v>317.0985501606198</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5760668848374</v>
+        <v>74.1706177983381</v>
       </c>
       <c r="P44" t="n">
-        <v>9.513581581691509</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
         <v>18.54388781565679</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,13 +38193,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.5269095716031</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295476</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
